--- a/LLB Gantt.xlsx
+++ b/LLB Gantt.xlsx
@@ -297,7 +297,7 @@
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -498,6 +498,15 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="42">
     <fill>
@@ -1011,7 +1020,7 @@
     <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1108,7 +1117,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="10" applyBorder="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1570,8 +1582,8 @@
   </sheetPr>
   <dimension ref="B1:BO48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1611,21 +1623,21 @@
         <v>1</v>
       </c>
       <c r="J2" s="15"/>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="36"/>
       <c r="Q2" s="16"/>
-      <c r="R2" s="33" t="s">
+      <c r="R2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="36"/>
       <c r="V2" s="17"/>
       <c r="W2" s="25" t="s">
         <v>10</v>
@@ -1633,7 +1645,7 @@
       <c r="X2" s="26"/>
       <c r="Y2" s="26"/>
       <c r="Z2" s="26"/>
-      <c r="AA2" s="36"/>
+      <c r="AA2" s="37"/>
       <c r="AB2" s="18"/>
       <c r="AC2" s="25" t="s">
         <v>11</v>
@@ -1643,7 +1655,7 @@
       <c r="AF2" s="26"/>
       <c r="AG2" s="26"/>
       <c r="AH2" s="26"/>
-      <c r="AI2" s="36"/>
+      <c r="AI2" s="37"/>
       <c r="AJ2" s="19"/>
       <c r="AK2" s="25" t="s">
         <v>12</v>
@@ -1706,7 +1718,7 @@
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
       <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
+      <c r="G4" s="33"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1945,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -2025,7 +2037,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -2045,7 +2057,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="7">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -2125,7 +2137,7 @@
         <v>3</v>
       </c>
       <c r="G16" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -2145,7 +2157,7 @@
         <v>3</v>
       </c>
       <c r="G17" s="7">
-        <v>0.01</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -2165,7 +2177,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -2225,7 +2237,7 @@
         <v>3</v>
       </c>
       <c r="G21" s="7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -2285,7 +2297,7 @@
         <v>2</v>
       </c>
       <c r="G24" s="7">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
